--- a/Data/اطلاعات خطوط.xlsx
+++ b/Data/اطلاعات خطوط.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,7 +26,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Vazir"/>
       <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Vazir"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,20 +51,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,33 +428,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="" customWidth="1" min="1" max="1"/>
-    <col width="" customWidth="1" min="2" max="2"/>
-    <col width="" customWidth="1" min="3" max="3"/>
-    <col width="" customWidth="1" min="4" max="4"/>
-    <col width="" customWidth="1" min="5" max="5"/>
-    <col width="" customWidth="1" min="6" max="6"/>
-    <col width="" customWidth="1" min="7" max="7"/>
-    <col width="" customWidth="1" min="8" max="8"/>
-    <col width="" customWidth="1" min="9" max="9"/>
-    <col width="" customWidth="1" min="10" max="10"/>
-    <col width="" customWidth="1" min="11" max="11"/>
-    <col width="" customWidth="1" min="12" max="12"/>
-    <col width="" customWidth="1" min="13" max="13"/>
-    <col width="" customWidth="1" min="14" max="14"/>
-    <col width="" customWidth="1" min="15" max="15"/>
-    <col width="" customWidth="1" min="16" max="16"/>
-    <col width="" customWidth="1" min="17" max="17"/>
-    <col width="" customWidth="1" min="18" max="18"/>
-    <col width="" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="110" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="26" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="22" customWidth="1" min="16" max="16"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="30" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,22 +534,2961 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>سرپرست خط</t>
+          <t>نوع دکل</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>نوع دکل</t>
+          <t>نوع سیم</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>نوع سیم</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
           <t>سال بهره‌برداری</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>اسلام آباد-دالاهو-سرپل ذهاب</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>BP611-BD607-DP606</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>87.311</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>174.622</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>اسلام آباد 230-اسلام آباد 63</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>BC605-BC606</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>اسلام آباد-قلاجه</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>BG603-BG604</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36.4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>72.8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>604A</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>اسلام آباد-حمیل-هلیلان</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>BH608</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>62.939</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>62.939</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1383</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>604B</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>تیاف حمیل</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>BH608</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1384</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>اسلام آباد-راوند</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>BR601</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1385</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>اورامانات-ثلاث</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>AS639-AS637</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>چمران-قره سو</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>CL633-CQ632</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>608A</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>روانسر-اورامانات-پاوه جدید</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>AR631-AP636</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45.35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>45.35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>608B</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>روانسر-اورامانات-پاوه جدید (مشترک)</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>AR631-AP636</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7.201</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14.402</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>609A</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>روانسر-اورامانات-پاوه قدیم</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>AR632-AP634</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52.928</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52.928</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>609B</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>روانسر-اورامانات-پاوه قدیم (مشترک)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>AR632-AP634</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6.372</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.744</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>سرپل ذهاب 230-سرپل ذهاب 63</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>LP609-LP610</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1392</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>611A</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>سرپل ذهاب-قصرشیرین</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>PS612-PS602</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32.195</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>64.39</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>611B</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>تیاف قره بلاغ</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>PS612</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.023</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.023</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>سرپل ذهاب-گیلانغرب</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>IP603-IP604</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>45.18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>قصر شیرین-نفت شهر-سالمی</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>SY619-NS620</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>کرمانشاه 2-ماهیدشت (جدید)</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>MN610-MN611</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>19.631</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39.262</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">کرمانشاه 2-ماهیدشت (تک مداره قدیم) </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>MN609</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12.907</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12.907</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>616A</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>ماهیدشت-اسلام آباد 1 (501 پایه چوبی)</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>CM607</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>39.898</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39.898</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>616B</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>ماهیدشت-اسلام آباد 1 و کرمانشاه 2 (دو مداره دکل 1 تا 6)</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>CM607-MN609</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1.415</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1.415</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>616C</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>ماهیدشت-اسلام آباد 1 (تک مداره 19 پایه فلزی)</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>CM607</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4.295</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>4.295</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>سرپل ذهاب-خسروی</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>KP706-KP707</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48.515</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>اسلام آباد-سیمره</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>BU814</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>علی نورآیند</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>اسلام آباد-مرصاد</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>BS815-BS816</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1.519</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3.038</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>داریان-اورامانات</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>AD822-DN812</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>44.5</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>کرمانشاه 2-اورامانات</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>AN813-DN812</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>81.866</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>163.732</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>رضا قاسمی</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1376</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>کرمانشاه 2-اسلام آباد</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>BN805</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>47.931</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>47.931</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>1377</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>مرصاد- سرپل ذهاب</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>PS811-PS814</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>74.804</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>149.608</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>1378</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>901A</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>شرق کرمانشاه-مرصاد</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>ES938</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>88.729</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>88.729</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>901B</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>نیروگاه زاگرس-شرق کرمانشاه</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>EK927-EK937</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>صادقی</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>محسن ذهبی</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مرصاد-دیاله</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>DS936</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>103.604</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>103.604</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>سلیمانی</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>یادگار میری</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>1372</t>
         </is>
       </c>
     </row>
